--- a/extend_X_feature/holiday/If_holiday.xlsx
+++ b/extend_X_feature/holiday/If_holiday.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Chen\OneDrive\桌面\台大\台大機器學習\機器學習專案\extend X feature\holiday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morri\Documents\GitHub\ML\extend_X_feature\holiday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29144C4D-5996-491A-B07B-738D8749361C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C975D5-77D9-4019-B772-1BCEBE5EDEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -360,12 +360,12 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -373,476 +373,476 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>20231002</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>20231003</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>20231004</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>20231005</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>20231006</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>20231007</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>20231008</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>20231009</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>20231010</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>20231011</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>20231012</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>20231013</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>20231014</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>20231015</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>20231016</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>20231017</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>20231018</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>20231019</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>20231020</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20231021</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>20231022</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>20231023</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>20231024</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>20231025</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>20231026</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>20231027</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>20231028</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>20231029</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>20231030</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>20231031</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>20231101</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>20231102</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>20231103</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>20231104</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>20231105</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>20231106</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>20231107</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>20231108</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>20231109</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>20231110</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>20231111</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>20231112</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>20231113</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>20231114</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>20231115</v>
       </c>
       <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>20231116</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>20231117</v>
       </c>
       <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>20231118</v>
       </c>
       <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>20231119</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>20231120</v>
       </c>
       <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>20231121</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>20231122</v>
       </c>
       <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>20231123</v>
       </c>
       <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>20231124</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>20231125</v>
       </c>
       <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>20231126</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>20231127</v>
       </c>
       <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>20231128</v>
       </c>
       <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>20231129</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
